--- a/data/trans_camb/IP19C05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 5,49</t>
+          <t>-5,47; 5,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 10,19</t>
+          <t>-3,73; 8,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 3,36</t>
+          <t>-2,26; 3,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 4,45</t>
+          <t>-1,97; 3,52</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,19</t>
+          <t>-1,43; 2,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,27</t>
+          <t>-1,58; 2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,95</t>
+          <t>-0,75; 2,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,22</t>
+          <t>0,26; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,91</t>
+          <t>-0,66; 1,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,48</t>
+          <t>-0,26; 2,57</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,84; 349,91</t>
+          <t>-69,88; 419,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,91; 422,19</t>
+          <t>-79,75; 350,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,57; —</t>
+          <t>-81,98; 1019,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,96; —</t>
+          <t>-20,22; 1732,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 280,38</t>
+          <t>-46,86; 349,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 403,74</t>
+          <t>-28,94; 418,66</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,87</t>
+          <t>0,8; 6,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,28</t>
+          <t>0,71; 7,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 9,3</t>
+          <t>0,47; 8,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,18</t>
+          <t>-1,76; 3,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,43</t>
+          <t>1,04; 6,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 3,58</t>
+          <t>-0,09; 3,82</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,24</t>
+          <t>-0,67; 2,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,19</t>
+          <t>-0,59; 2,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,59</t>
+          <t>0,12; 3,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,52</t>
+          <t>0,07; 3,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,39</t>
+          <t>0,14; 2,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,27</t>
+          <t>0,05; 2,27</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,38; 708,41</t>
+          <t>-47,69; 537,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,65; 571,91</t>
+          <t>-50,25; 608,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 766,34</t>
+          <t>-14,7; 699,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 811,94</t>
+          <t>-10,06; 794,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,32; 422,54</t>
+          <t>3,68; 457,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,08; 421,96</t>
+          <t>-0,67; 432,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C05-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 5,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 8,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 3,19</t>
+          <t>-2,92; 2,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,52</t>
+          <t>-1,96; 3,44</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>41,82%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>41,82%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>37,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,26</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>0,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,17</t>
+          <t>-0,59; 3,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,11</t>
+          <t>0,37; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,91</t>
+          <t>-1,59; 2,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,45</t>
+          <t>-1,75; 1,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,97</t>
+          <t>-0,67; 1,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,57</t>
+          <t>-0,17; 2,53</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>114,69%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>246,97%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>18,02%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>11,99%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>114,69%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>246,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 419,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,75; 350,43</t>
+          <t>-19,75; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,98; 1019,5</t>
+          <t>-74,07; 358,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 1732,75</t>
+          <t>-83,69; 326,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,86; 349,94</t>
+          <t>-50,71; 292,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 418,66</t>
+          <t>-22,27; 367,38</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,98</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,6</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>2,39</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,93</t>
+          <t>0,55; 9,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,49</t>
+          <t>-1,79; 3,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 8,94</t>
+          <t>0,79; 6,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,45</t>
+          <t>0,7; 6,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,28</t>
+          <t>1,34; 6,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,82</t>
+          <t>-0,12; 3,5</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>476,53%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>79,12%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>476,53%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>79,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,7</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,19</t>
+          <t>0,2; 3,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,4</t>
+          <t>0,14; 3,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,43</t>
+          <t>-0,61; 2,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,28</t>
+          <t>-0,66; 2,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,31</t>
+          <t>0,17; 2,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,27</t>
+          <t>0,09; 2,27</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>171,83%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>160,17%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>74,0%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>71,24%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>171,83%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>160,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,69; 537,55</t>
+          <t>-5,47; 902,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 608,97</t>
+          <t>-15,93; 836,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 699,31</t>
+          <t>-54,01; 522,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 794,42</t>
+          <t>-54,87; 496,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 457,47</t>
+          <t>5,29; 421,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 432,48</t>
+          <t>2,03; 411,11</t>
         </is>
       </c>
     </row>
